--- a/biology/Zoologie/Boiga_kraepelini/Boiga_kraepelini.xlsx
+++ b/biology/Zoologie/Boiga_kraepelini/Boiga_kraepelini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga kraepelini  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga kraepelini  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République populaire de Chine, au Hainan, dans l'Ouest du Sichuan et au Guizhou) ;
 au Laos ;
 dans le Nord de Taïwan ;
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Dr Kræpelin, directeur du muséum d'histoire naturelle de Hambourg, dont le musée détenait les deux spécimens examinés par Leonhard Hess Stejneger. Ces spécimens avait été collectés à Formose[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Dr Kræpelin, directeur du muséum d'histoire naturelle de Hambourg, dont le musée détenait les deux spécimens examinés par Leonhard Hess Stejneger. Ces spécimens avait été collectés à Formose.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stejneger, 1902 : A new opisthoglyph snake from Formosa. Proceedings of the Biological Society of Washington, vol. 15, p. 15-17 (texte intégral).</t>
         </is>
